--- a/Ejercicio_3_guia_1/ejercicio_3_tabla_de_entradas _y_salidas.xlsx
+++ b/Ejercicio_3_guia_1/ejercicio_3_tabla_de_entradas _y_salidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unidad 2\Desktop\Guia_1_ejercicio_2_PRE941_G01T\Guia_1__PRE941_G01T\Ejercicio_3_guia_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E76A17-2C2A-4077-9A96-55623588F831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BA315B-661D-48EC-A7B2-63953A8A1375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17790" xr2:uid="{574527EA-3AD2-4D54-B7CA-3D409C20E3D4}"/>
   </bookViews>
@@ -165,19 +165,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -185,13 +182,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -282,8 +282,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>180615</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2619375</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>85595</xdr:rowOff>
     </xdr:to>
@@ -308,8 +308,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1514475" y="1333500"/>
-          <a:ext cx="2876190" cy="1038095"/>
+          <a:off x="1514475" y="1600200"/>
+          <a:ext cx="2628900" cy="1038095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -758,272 +758,294 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="10"/>
-    <col min="2" max="2" width="11.42578125" style="11"/>
-    <col min="3" max="3" width="40.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="39" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="11.42578125" style="4"/>
+    <col min="2" max="2" width="11.42578125" style="5"/>
+    <col min="3" max="3" width="40.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="11">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="9">
         <v>0.99435029588183499</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="11"/>
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="9">
         <v>0.99435029500000005</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="11">
         <v>10</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="9">
         <v>0.88918056299149695</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>20</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="9">
         <v>0.88918056300000003</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="11">
         <v>5</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="9">
         <v>0.99558577000000004</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="D18" s="6" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="11"/>
+      <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="9">
         <v>0.99558577199999998</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="11">
         <v>14</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="9">
         <v>0.72578615171247596</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="6" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="11"/>
+      <c r="D25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>28</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="9">
         <v>0.72578615099999999</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="11">
         <v>1</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="9">
         <v>0.999881866509155</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="D31" s="6" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="11"/>
+      <c r="D31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="9">
         <v>0.99988186649999999</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E17:F18"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="D32:D33"/>
@@ -1040,28 +1062,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:F20"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
